--- a/example/данные/лицей/реестр-учебных-планов.xlsx
+++ b/example/данные/лицей/реестр-учебных-планов.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="ДО" sheetId="1" r:id="rId1"/>
@@ -34,9 +34,6 @@
     <t>литературный</t>
   </si>
   <si>
-    <t>ДО</t>
-  </si>
-  <si>
     <t>НО</t>
   </si>
   <si>
@@ -50,6 +47,9 @@
   </si>
   <si>
     <t>естественно-научный</t>
+  </si>
+  <si>
+    <t>ДО</t>
   </si>
 </sst>
 </file>
@@ -408,8 +408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -427,7 +427,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -435,7 +435,7 @@
         <v>2019</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>2</v>
@@ -446,7 +446,7 @@
         <v>2020</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>2</v>
@@ -457,7 +457,7 @@
         <v>2021</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>2</v>
@@ -468,7 +468,7 @@
         <v>2022</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>2</v>
@@ -503,7 +503,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -511,7 +511,7 @@
         <v>2009</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>2</v>
@@ -522,7 +522,7 @@
         <v>2010</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>2</v>
@@ -533,7 +533,7 @@
         <v>2011</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>2</v>
@@ -544,7 +544,7 @@
         <v>2012</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>2</v>
@@ -555,7 +555,7 @@
         <v>2013</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>2</v>
@@ -566,7 +566,7 @@
         <v>2014</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>2</v>
@@ -577,7 +577,7 @@
         <v>2015</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>2</v>
@@ -588,7 +588,7 @@
         <v>2016</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>2</v>
@@ -599,7 +599,7 @@
         <v>2017</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>2</v>
@@ -610,7 +610,7 @@
         <v>2018</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>2</v>
@@ -621,7 +621,7 @@
         <v>2019</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>2</v>
@@ -632,7 +632,7 @@
         <v>2020</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>3</v>
@@ -643,7 +643,7 @@
         <v>2020</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>2</v>
@@ -654,7 +654,7 @@
         <v>2021</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>2</v>
@@ -665,7 +665,7 @@
         <v>2022</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>2</v>
@@ -700,7 +700,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -708,7 +708,7 @@
         <v>2009</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -719,7 +719,7 @@
         <v>2010</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -730,7 +730,7 @@
         <v>2011</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
@@ -741,7 +741,7 @@
         <v>2012</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
@@ -752,7 +752,7 @@
         <v>2013</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
@@ -763,7 +763,7 @@
         <v>2014</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
         <v>2</v>
@@ -774,7 +774,7 @@
         <v>2015</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
         <v>2</v>
@@ -785,7 +785,7 @@
         <v>2016</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
         <v>2</v>
@@ -796,7 +796,7 @@
         <v>2017</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
         <v>2</v>
@@ -807,7 +807,7 @@
         <v>2018</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
         <v>2</v>
@@ -818,7 +818,7 @@
         <v>2019</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
         <v>2</v>
@@ -829,7 +829,7 @@
         <v>2020</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
         <v>2</v>
@@ -840,7 +840,7 @@
         <v>2021</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
         <v>2</v>
@@ -851,7 +851,7 @@
         <v>2022</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
         <v>2</v>
@@ -862,7 +862,7 @@
         <v>2022</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
@@ -878,7 +878,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -897,7 +897,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -905,7 +905,7 @@
         <v>2009</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -916,7 +916,7 @@
         <v>2010</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -927,7 +927,7 @@
         <v>2011</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
@@ -938,7 +938,7 @@
         <v>2012</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
@@ -949,7 +949,7 @@
         <v>2013</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
@@ -960,7 +960,7 @@
         <v>2014</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
         <v>2</v>
@@ -971,7 +971,7 @@
         <v>2015</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
         <v>2</v>
@@ -982,7 +982,7 @@
         <v>2016</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
         <v>2</v>
@@ -993,7 +993,7 @@
         <v>2017</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
         <v>2</v>
@@ -1004,7 +1004,7 @@
         <v>2018</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
         <v>2</v>
@@ -1015,7 +1015,7 @@
         <v>2019</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
         <v>2</v>
@@ -1026,7 +1026,7 @@
         <v>2020</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
         <v>2</v>
@@ -1037,7 +1037,7 @@
         <v>2021</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
         <v>2</v>
@@ -1048,7 +1048,7 @@
         <v>2022</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
         <v>2</v>
@@ -1059,10 +1059,10 @@
         <v>2022</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
         <v>9</v>
-      </c>
-      <c r="C16" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
